--- a/TC_HELPER.xlsx
+++ b/TC_HELPER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>TIBCO RENDEZVOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -331,6 +331,26 @@
   </si>
   <si>
     <t>APP_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAM_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAM_VALUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_GROUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +773,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1369"/>
+                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1381"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -811,7 +831,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1370"/>
+                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1382"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -869,7 +889,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1371"/>
+                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1383"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -927,7 +947,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1372"/>
+                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1384"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -985,7 +1005,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1373"/>
+                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1385"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1043,7 +1063,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1374"/>
+                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1386"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1100,7 +1120,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1178,7 @@
         <xdr:cNvPr id="38" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1278,7 @@
         <xdr:cNvPr id="39" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1378,7 @@
         <xdr:cNvPr id="40" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1478,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1578,7 @@
         <xdr:cNvPr id="42" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1664,7 @@
         <xdr:cNvPr id="43" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1750,7 @@
         <xdr:cNvPr id="17" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1850,7 @@
         <xdr:cNvPr id="19" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1936,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1997,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2058,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2119,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2180,7 @@
         <xdr:cNvPr id="54" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2279,7 +2299,7 @@
         <xdr:cNvPr id="55" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2360,7 @@
         <xdr:cNvPr id="56" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2421,7 @@
         <xdr:cNvPr id="61" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2507,7 @@
         <xdr:cNvPr id="62" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2568,7 @@
         <xdr:cNvPr id="63" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2654,7 @@
         <xdr:cNvPr id="64" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2715,7 @@
         <xdr:cNvPr id="65" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2801,7 @@
         <xdr:cNvPr id="66" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2862,7 @@
         <xdr:cNvPr id="67" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +2948,7 @@
         <xdr:cNvPr id="68" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +3009,7 @@
         <xdr:cNvPr id="81" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3095,7 @@
         <xdr:cNvPr id="92" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3195,7 @@
         <xdr:cNvPr id="93" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3275,7 +3295,7 @@
         <xdr:cNvPr id="94" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3381,7 @@
         <xdr:cNvPr id="95" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +3467,7 @@
         <xdr:cNvPr id="96" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3553,7 @@
         <xdr:cNvPr id="97" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3639,7 @@
         <xdr:cNvPr id="98" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,7 +3722,7 @@
         <xdr:cNvPr id="99" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +3822,7 @@
         <xdr:cNvPr id="103" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3902,7 +3922,7 @@
         <xdr:cNvPr id="105" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +4008,7 @@
         <xdr:cNvPr id="106" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +4074,7 @@
         <xdr:cNvPr id="38" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4174,7 @@
         <xdr:cNvPr id="39" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4254,7 +4274,7 @@
         <xdr:cNvPr id="40" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,7 +4374,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4454,7 +4474,7 @@
         <xdr:cNvPr id="42" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4574,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4612,7 +4632,7 @@
         <xdr:cNvPr id="44" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4673,7 +4693,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4734,7 +4754,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,7 +4815,7 @@
         <xdr:cNvPr id="47" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4856,7 +4876,7 @@
         <xdr:cNvPr id="16" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4995,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5036,7 +5056,7 @@
         <xdr:cNvPr id="22" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5122,7 +5142,7 @@
         <xdr:cNvPr id="23" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5208,7 +5228,7 @@
         <xdr:cNvPr id="24" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5308,7 +5328,7 @@
         <xdr:cNvPr id="25" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5414,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5455,7 +5475,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,7 +5536,7 @@
         <xdr:cNvPr id="50" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,7 +5622,7 @@
         <xdr:cNvPr id="51" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5708,7 @@
         <xdr:cNvPr id="52" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5774,7 +5794,7 @@
         <xdr:cNvPr id="53" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5860,7 +5880,7 @@
         <xdr:cNvPr id="54" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5946,7 +5966,7 @@
         <xdr:cNvPr id="55" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,7 +6052,7 @@
         <xdr:cNvPr id="56" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,7 +6138,7 @@
         <xdr:cNvPr id="57" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6224,7 @@
         <xdr:cNvPr id="60" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,7 +6285,7 @@
         <xdr:cNvPr id="61" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6326,7 +6346,7 @@
         <xdr:cNvPr id="62" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6387,7 +6407,7 @@
         <xdr:cNvPr id="63" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6453,7 +6473,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6514,7 +6534,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6592,7 @@
         <xdr:cNvPr id="18" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6680,7 +6700,7 @@
         <xdr:cNvPr id="19" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6788,7 +6808,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6849,7 +6869,7 @@
         <xdr:cNvPr id="22" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6957,7 +6977,7 @@
         <xdr:cNvPr id="23" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7065,7 +7085,7 @@
         <xdr:cNvPr id="24" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7173,7 +7193,7 @@
         <xdr:cNvPr id="25" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7259,7 +7279,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7320,7 +7340,7 @@
         <xdr:cNvPr id="28" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7406,7 +7426,7 @@
         <xdr:cNvPr id="29" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7492,7 +7512,7 @@
         <xdr:cNvPr id="30" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7578,7 +7598,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7639,7 +7659,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7700,7 +7720,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7761,7 +7781,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7874,7 +7894,7 @@
         <xdr:cNvPr id="2" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7986,7 +8006,7 @@
         <xdr:cNvPr id="3" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8069,7 +8089,7 @@
         <xdr:cNvPr id="4" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8152,7 +8172,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8210,7 +8230,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8273,7 +8293,7 @@
         <xdr:cNvPr id="7" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8356,7 +8376,7 @@
         <xdr:cNvPr id="8" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8439,7 +8459,7 @@
         <xdr:cNvPr id="9" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8522,7 +8542,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8580,7 +8600,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8643,7 +8663,7 @@
         <xdr:cNvPr id="2" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8726,7 +8746,7 @@
         <xdr:cNvPr id="3" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8809,7 +8829,7 @@
         <xdr:cNvPr id="4" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8892,7 +8912,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8952,7 +8972,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9341,9 +9361,9 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="97" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9972,12 +9992,24 @@
   <sheetPr>
     <tabColor rgb="FF00878A"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9988,12 +10020,35 @@
   <sheetPr>
     <tabColor rgb="FF00878A"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10004,12 +10059,37 @@
   <sheetPr>
     <tabColor rgb="FF00878A"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10044,6 +10124,7 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10387,10 +10468,10 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D3" sqref="D3:J5"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O23:O26"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>

--- a/TC_HELPER.xlsx
+++ b/TC_HELPER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500"/>
+    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>TIBCO RENDEZVOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,6 +353,54 @@
     <t>SERVER_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>EQPID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_MODEL_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_MODEL_VER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCOP_MODEL_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCOP_MODEL_VER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAR_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAR_VER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL_SUBJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_SERVER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI_SERVER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,6 +762,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -773,7 +827,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1381"/>
+                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1411"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -831,7 +885,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1382"/>
+                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1412"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -889,7 +943,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1383"/>
+                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1413"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -947,7 +1001,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1384"/>
+                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1414"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1005,7 +1059,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1385"/>
+                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1415"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1063,7 +1117,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1386"/>
+                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1416"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1120,7 +1174,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1232,7 @@
         <xdr:cNvPr id="38" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1332,7 @@
         <xdr:cNvPr id="39" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1432,7 @@
         <xdr:cNvPr id="40" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1532,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1632,7 @@
         <xdr:cNvPr id="42" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1718,7 @@
         <xdr:cNvPr id="43" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1804,7 @@
         <xdr:cNvPr id="17" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1904,7 @@
         <xdr:cNvPr id="19" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1990,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2051,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2112,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2173,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2234,7 @@
         <xdr:cNvPr id="54" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2353,7 @@
         <xdr:cNvPr id="55" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2414,7 @@
         <xdr:cNvPr id="56" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2475,7 @@
         <xdr:cNvPr id="61" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2561,7 @@
         <xdr:cNvPr id="62" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2622,7 @@
         <xdr:cNvPr id="63" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2708,7 @@
         <xdr:cNvPr id="64" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2769,7 @@
         <xdr:cNvPr id="65" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2855,7 @@
         <xdr:cNvPr id="66" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2916,7 @@
         <xdr:cNvPr id="67" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +3002,7 @@
         <xdr:cNvPr id="68" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3009,7 +3063,7 @@
         <xdr:cNvPr id="81" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3149,7 @@
         <xdr:cNvPr id="92" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3249,7 @@
         <xdr:cNvPr id="93" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3349,7 @@
         <xdr:cNvPr id="94" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3381,7 +3435,7 @@
         <xdr:cNvPr id="95" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +3521,7 @@
         <xdr:cNvPr id="96" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3607,7 @@
         <xdr:cNvPr id="97" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,7 +3693,7 @@
         <xdr:cNvPr id="98" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3722,7 +3776,7 @@
         <xdr:cNvPr id="99" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3876,7 @@
         <xdr:cNvPr id="103" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,7 +3976,7 @@
         <xdr:cNvPr id="105" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4008,7 +4062,7 @@
         <xdr:cNvPr id="106" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4074,7 +4128,7 @@
         <xdr:cNvPr id="38" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000068000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4228,7 @@
         <xdr:cNvPr id="39" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4274,7 +4328,7 @@
         <xdr:cNvPr id="40" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4374,7 +4428,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B4000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4528,7 @@
         <xdr:cNvPr id="42" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,7 +4628,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4632,7 +4686,7 @@
         <xdr:cNvPr id="44" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4693,7 +4747,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +4808,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D5000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,7 +4869,7 @@
         <xdr:cNvPr id="47" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000D8000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4876,7 +4930,7 @@
         <xdr:cNvPr id="16" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4995,7 +5049,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000CF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,7 +5110,7 @@
         <xdr:cNvPr id="22" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5196,7 @@
         <xdr:cNvPr id="23" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5228,7 +5282,7 @@
         <xdr:cNvPr id="24" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,7 +5382,7 @@
         <xdr:cNvPr id="25" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +5468,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B9000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5529,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5536,7 +5590,7 @@
         <xdr:cNvPr id="50" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5622,7 +5676,7 @@
         <xdr:cNvPr id="51" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,7 +5762,7 @@
         <xdr:cNvPr id="52" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5848,7 @@
         <xdr:cNvPr id="53" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5880,7 +5934,7 @@
         <xdr:cNvPr id="54" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5966,7 +6020,7 @@
         <xdr:cNvPr id="55" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6052,7 +6106,7 @@
         <xdr:cNvPr id="56" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6138,7 +6192,7 @@
         <xdr:cNvPr id="57" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6224,7 +6278,7 @@
         <xdr:cNvPr id="60" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6285,7 +6339,7 @@
         <xdr:cNvPr id="61" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6346,7 +6400,7 @@
         <xdr:cNvPr id="62" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6407,7 +6461,7 @@
         <xdr:cNvPr id="63" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000DC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6473,7 +6527,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6534,7 +6588,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BC000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6646,7 @@
         <xdr:cNvPr id="18" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6700,7 +6754,7 @@
         <xdr:cNvPr id="19" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6808,7 +6862,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6869,7 +6923,7 @@
         <xdr:cNvPr id="22" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6977,7 +7031,7 @@
         <xdr:cNvPr id="23" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7085,7 +7139,7 @@
         <xdr:cNvPr id="24" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7193,7 +7247,7 @@
         <xdr:cNvPr id="25" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7279,7 +7333,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7340,7 +7394,7 @@
         <xdr:cNvPr id="28" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7426,7 +7480,7 @@
         <xdr:cNvPr id="29" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7512,7 +7566,7 @@
         <xdr:cNvPr id="30" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7598,7 +7652,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7659,7 +7713,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7720,7 +7774,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7781,7 +7835,7 @@
         <xdr:cNvPr id="41" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7894,7 +7948,7 @@
         <xdr:cNvPr id="2" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000078000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8006,7 +8060,7 @@
         <xdr:cNvPr id="3" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000079000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8089,7 +8143,7 @@
         <xdr:cNvPr id="4" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00007A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8172,7 +8226,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00009A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8230,7 +8284,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BB000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8278,22 +8332,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>705331</xdr:colOff>
+      <xdr:colOff>324331</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4001</xdr:rowOff>
+      <xdr:rowOff>70676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2197581</xdr:colOff>
+      <xdr:colOff>1816581</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>21929</xdr:rowOff>
+      <xdr:rowOff>88604</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8301,8 +8355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18440881" y="1442276"/>
-          <a:ext cx="1492250" cy="741828"/>
+          <a:off x="648181" y="1547051"/>
+          <a:ext cx="1492250" cy="894228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8345,6 +8399,42 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EQPID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INFO.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> CHECK</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -8376,7 +8466,7 @@
         <xdr:cNvPr id="8" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A2000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8459,7 +8549,7 @@
         <xdr:cNvPr id="9" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A3000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8542,7 +8632,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B1000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8600,7 +8690,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8663,7 +8753,7 @@
         <xdr:cNvPr id="2" name="Rectangle 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8746,7 +8836,7 @@
         <xdr:cNvPr id="3" name="Rectangle 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8829,7 +8919,7 @@
         <xdr:cNvPr id="4" name="Rectangle 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000AF000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8912,7 +9002,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000B0000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8972,7 +9062,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000BD000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9361,9 +9451,9 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="97" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10138,7 +10228,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I20" sqref="I20"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11196,178 +11286,236 @@
   <sheetPr>
     <tabColor rgb="FFFF6201"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="34"/>
+    <col min="3" max="7" width="8.88671875" style="34"/>
+    <col min="8" max="8" width="13.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="34" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="50.1" customHeight="1">
+    <row r="1" spans="2:16" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="50.1" customHeight="1">
+    <row r="2" spans="2:16" ht="50.1" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:16">
       <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="D3" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4" s="6"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="40"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="6"/>
+      <c r="P31" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="6"/>
-      <c r="D5" s="34" t="s">
+    <row r="32" spans="2:16">
+      <c r="B32" s="6"/>
+      <c r="P32" s="34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="6"/>
-      <c r="D6" s="34" t="s">
+    <row r="33" spans="2:16">
+      <c r="B33" s="6"/>
+      <c r="P33" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="6"/>
-      <c r="D7" s="34" t="s">
+    <row r="34" spans="2:16">
+      <c r="B34" s="6"/>
+      <c r="P34" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:16">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:16">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:16">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:16">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:16">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:16">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:16">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:16">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:16">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:16">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:16">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:16">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:16">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:16">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2">

--- a/TC_HELPER.xlsx
+++ b/TC_HELPER.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="4" r:id="rId2"/>
-    <sheet name="2" sheetId="5" r:id="rId3"/>
-    <sheet name="3" sheetId="6" r:id="rId4"/>
-    <sheet name="4" sheetId="7" r:id="rId5"/>
-    <sheet name="5" sheetId="8" r:id="rId6"/>
-    <sheet name="6" sheetId="9" r:id="rId7"/>
-    <sheet name="TABLE" sheetId="10" r:id="rId8"/>
-    <sheet name="INDEX" sheetId="14" r:id="rId9"/>
-    <sheet name="SEQUENCE" sheetId="13" r:id="rId10"/>
-    <sheet name="PROCEDURE" sheetId="12" r:id="rId11"/>
-    <sheet name="VIEW" sheetId="11" r:id="rId12"/>
-    <sheet name="LINE" sheetId="15" r:id="rId13"/>
-    <sheet name="SERVER_GROUP" sheetId="16" r:id="rId14"/>
-    <sheet name="SERVER" sheetId="17" r:id="rId15"/>
-    <sheet name="APPLICATION" sheetId="18" r:id="rId16"/>
-    <sheet name="EQUIPMENT" sheetId="19" r:id="rId17"/>
+    <sheet name="Log" sheetId="20" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
+    <sheet name="2" sheetId="5" r:id="rId4"/>
+    <sheet name="3" sheetId="6" r:id="rId5"/>
+    <sheet name="4" sheetId="7" r:id="rId6"/>
+    <sheet name="5" sheetId="8" r:id="rId7"/>
+    <sheet name="6" sheetId="9" r:id="rId8"/>
+    <sheet name="TABLE" sheetId="10" r:id="rId9"/>
+    <sheet name="INDEX" sheetId="14" r:id="rId10"/>
+    <sheet name="SEQUENCE" sheetId="13" r:id="rId11"/>
+    <sheet name="PROCEDURE" sheetId="12" r:id="rId12"/>
+    <sheet name="VIEW" sheetId="11" r:id="rId13"/>
+    <sheet name="LINE" sheetId="15" r:id="rId14"/>
+    <sheet name="SERVER_GROUP" sheetId="16" r:id="rId15"/>
+    <sheet name="SERVER" sheetId="17" r:id="rId16"/>
+    <sheet name="APPLICATION" sheetId="18" r:id="rId17"/>
+    <sheet name="EQUIPMENT" sheetId="19" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$G$46</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>TIBCO RENDEZVOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -137,112 +138,6 @@
   </si>
   <si>
     <t>SERVER_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_LENGTH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULLABLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA_DEFAULT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT_QUERY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLLBACK_QUERY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_APP_CONFIG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>temp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TC_APP_CONFIG
-(
-LINE_ID VARCHAR2 (40) NOT NULL DEFAULT 'temp',</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP TABLE TC_APP_CONFIG CASCADE CONSTRAINTS;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERVER_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SERVER_NAME VARCHAR2 (50),</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP_NAME VARCHAR2 (60) DEFAULT 7
-);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC_EQP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQP_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TC_EQP
-(
-EQP_ID VARCHAR2 (50) NOT NULL,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP TABLE TC_EQP CASCADE CONSTRAINTS;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINE_ID VARCHAR2 (40) NOT NULL
-);</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -399,6 +294,103 @@
   </si>
   <si>
     <t>MPI_SERVER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_LENGTH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULLABLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT_QUERY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLLBACK_QUERY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_APP_CONFIG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE TC_APP_CONFIG CASCADE CONSTRAINTS;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_EQP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQP_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE TC_EQP CASCADE CONSTRAINTS;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TC_APP_CONFIG
+(
+LINE_ID VARCHAR2 (40) NOT NULL DEFAULT 'temp',
+SERVER_NAME VARCHAR2 (50),
+APP_NAME VARCHAR2 (60) DEFAULT 7
+);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TC_EQP
+(
+EQP_ID VARCHAR2 (50) NOT NULL,
+LINE_ID VARCHAR2 (40) NOT NULL
+);</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +819,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1411"/>
+                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1441"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -885,7 +877,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1412"/>
+                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1442"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -943,7 +935,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1413"/>
+                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1443"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1001,7 +993,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1414"/>
+                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1444"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1059,7 +1051,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1415"/>
+                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1117,7 +1109,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1416"/>
+                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1446"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9467,7 +9459,7 @@
     <row r="1" spans="1:9" s="31" customFormat="1" ht="49.9" customHeight="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -9886,12 +9878,18 @@
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9910,11 +9908,27 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF005C5C"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
@@ -10077,7 +10091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10090,13 +10104,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -10105,7 +10119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10126,16 +10140,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -10144,7 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10164,38 +10178,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00878A"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10214,11 +10212,40 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00878A"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
@@ -10228,7 +10255,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I20" sqref="I20"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -10248,43 +10275,43 @@
   <sheetData>
     <row r="1" spans="2:11" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="50.1" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="2"/>
       <c r="D3" s="37" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2"/>
       <c r="D4" s="37" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -10297,7 +10324,7 @@
     <row r="5" spans="2:11">
       <c r="B5" s="2"/>
       <c r="D5" s="37" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10551,7 +10578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10580,42 +10607,42 @@
   <sheetData>
     <row r="1" spans="2:10" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="50.1" customHeight="1">
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="D3" s="37" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="D4" s="37" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -10627,7 +10654,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="D5" s="37" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10639,7 +10666,7 @@
     <row r="6" spans="2:10">
       <c r="B6" s="3"/>
       <c r="D6" s="37" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -10659,7 +10686,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="3"/>
       <c r="D9" s="34" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E9" s="38"/>
     </row>
@@ -10832,7 +10859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0D82AB"/>
@@ -10855,7 +10882,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="50.1" customHeight="1">
@@ -10869,13 +10896,13 @@
     <row r="4" spans="2:6">
       <c r="B4" s="4"/>
       <c r="D4" s="34" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -11062,7 +11089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF59B1DD"/>
@@ -11083,7 +11110,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="50.1" customHeight="1">
@@ -11281,14 +11308,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF6201"/>
   </sheetPr>
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
@@ -11312,7 +11339,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="50.1" customHeight="1">
@@ -11323,40 +11350,40 @@
     <row r="3" spans="2:16">
       <c r="B3" s="6"/>
       <c r="D3" s="41" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L3" s="41" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="M3" s="41" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="N3" s="41" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="P3" s="41" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -11455,25 +11482,25 @@
     <row r="31" spans="2:16">
       <c r="B31" s="6"/>
       <c r="P31" s="34" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="6"/>
       <c r="P32" s="34" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="6"/>
       <c r="P33" s="34" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="6"/>
       <c r="P34" s="34" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:16">
@@ -11570,7 +11597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCAC1C"/>
@@ -11591,7 +11618,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="50.1" customHeight="1">
@@ -11788,14 +11815,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -11812,71 +11841,71 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="36">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72">
       <c r="A2" s="11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11">
         <v>40</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D3" s="11">
         <v>50</v>
@@ -11886,20 +11915,18 @@
         <v>2</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="H3" s="13"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="24">
+    <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D4" s="11">
         <v>60</v>
@@ -11911,61 +11938,57 @@
       <c r="G4" s="11">
         <v>7</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="H4" s="13"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="60">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D5" s="11">
         <v>50</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="13" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D6" s="11">
         <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F6" s="11">
         <v>2</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="11"/>
     </row>
   </sheetData>
@@ -11973,26 +11996,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF005C5C"/>
-  </sheetPr>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TC_HELPER.xlsx
+++ b/TC_HELPER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,22 @@
     <sheet name="2" sheetId="5" r:id="rId4"/>
     <sheet name="3" sheetId="6" r:id="rId5"/>
     <sheet name="4" sheetId="7" r:id="rId6"/>
-    <sheet name="5" sheetId="8" r:id="rId7"/>
-    <sheet name="6" sheetId="9" r:id="rId8"/>
-    <sheet name="TABLE" sheetId="10" r:id="rId9"/>
-    <sheet name="INDEX" sheetId="14" r:id="rId10"/>
-    <sheet name="SEQUENCE" sheetId="13" r:id="rId11"/>
-    <sheet name="PROCEDURE" sheetId="12" r:id="rId12"/>
-    <sheet name="VIEW" sheetId="11" r:id="rId13"/>
-    <sheet name="LINE" sheetId="15" r:id="rId14"/>
-    <sheet name="SERVER_GROUP" sheetId="16" r:id="rId15"/>
-    <sheet name="SERVER" sheetId="17" r:id="rId16"/>
-    <sheet name="APPLICATION" sheetId="18" r:id="rId17"/>
-    <sheet name="EQUIPMENT" sheetId="19" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId7"/>
+    <sheet name="5" sheetId="8" r:id="rId8"/>
+    <sheet name="6" sheetId="9" r:id="rId9"/>
+    <sheet name="TABLE" sheetId="10" r:id="rId10"/>
+    <sheet name="INDEX" sheetId="14" r:id="rId11"/>
+    <sheet name="SEQUENCE" sheetId="13" r:id="rId12"/>
+    <sheet name="PROCEDURE" sheetId="12" r:id="rId13"/>
+    <sheet name="VIEW" sheetId="11" r:id="rId14"/>
+    <sheet name="LINE" sheetId="15" r:id="rId15"/>
+    <sheet name="SERVER_GROUP" sheetId="16" r:id="rId16"/>
+    <sheet name="SERVER" sheetId="17" r:id="rId17"/>
+    <sheet name="APPLICATION" sheetId="18" r:id="rId18"/>
+    <sheet name="EQUIPMENT" sheetId="19" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$G$46</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
   <si>
     <t>TIBCO RENDEZVOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,14 +254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LINE_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQP_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SERVER_MODEL_NAME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -391,6 +384,10 @@
 EQP_ID VARCHAR2 (50) NOT NULL,
 LINE_ID VARCHAR2 (40) NOT NULL
 );</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +816,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1441"/>
+                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1489"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -877,7 +874,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1442"/>
+                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1490"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -935,7 +932,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1443"/>
+                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1491"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -993,7 +990,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1444"/>
+                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1492"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1051,7 +1048,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1445"/>
+                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1493"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1109,7 +1106,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1446"/>
+                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1494"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8609,15 +8606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1460346</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31454</xdr:rowOff>
+      <xdr:colOff>1816581</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1462886</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>199116</xdr:rowOff>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>83165</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8628,12 +8625,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19195896" y="2193629"/>
-          <a:ext cx="2540" cy="510562"/>
+          <a:off x="2140431" y="1994165"/>
+          <a:ext cx="583719" cy="3525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8666,60 +8666,88 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422121</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>136229</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>424661</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3129706</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90129</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 125">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4241646" y="11470979"/>
-          <a:ext cx="2540" cy="397171"/>
+          <a:off x="2724150" y="1771650"/>
+          <a:ext cx="729406" cy="452079"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="57150" cap="flat" cmpd="thickThin">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="FF6201"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-          <a:headEnd w="lg" len="med"/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:glow>
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="3">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
+        <a:effectRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견고딕" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RUN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9878,6 +9906,189 @@
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="72">
+      <c r="A2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="11">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11">
+        <v>60</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="60">
+      <c r="A5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="11">
+        <v>50</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="11">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF005C5C"/>
+  </sheetPr>
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9890,22 +10101,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF005C5C"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9924,11 +10119,27 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF005C5C"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
@@ -10091,7 +10302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10119,7 +10330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10158,7 +10369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10199,7 +10410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10215,7 +10426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00878A"/>
@@ -10868,7 +11079,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11098,7 +11309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11310,239 +11521,275 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="C12" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="C13" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="C14" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="C15" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF6201"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="7" width="8.88671875" style="34"/>
-    <col min="8" max="8" width="13.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="34" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="34"/>
+    <col min="3" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="50.1" customHeight="1">
+    <row r="1" spans="2:6" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="50.1" customHeight="1">
+    <row r="2" spans="2:6" ht="50.1" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:6">
       <c r="B3" s="6"/>
-      <c r="D3" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16">
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="6"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="C4" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="C5" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="F6" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="D7" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:6">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:6">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:6">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:6">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:6">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:6">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:6">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:6">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:2">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:2">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:2">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:2">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:2">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:2">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:2">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:2">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:2">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:2">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:2">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:2">
       <c r="B31" s="6"/>
-      <c r="P31" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="6"/>
-      <c r="P32" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16">
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="6"/>
-      <c r="P33" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="6"/>
-      <c r="P34" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:2">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:2">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:2">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:2">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:2">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:2">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2">
@@ -11597,7 +11844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCAC1C"/>
@@ -11605,8 +11852,8 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11813,187 +12060,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF005C5C"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="38.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72">
-      <c r="A2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="11">
-        <v>40</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="11">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="11">
-        <v>60</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11">
-        <v>7</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="60">
-      <c r="A5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="11">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="11">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TC_HELPER.xlsx
+++ b/TC_HELPER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="1605" yWindow="1530" windowWidth="24855" windowHeight="10395" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>TIBCO RENDEZVOUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -362,10 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EQP_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DROP TABLE TC_EQP CASCADE CONSTRAINTS;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,7 +383,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sdf</t>
+    <t xml:space="preserve">   TC_APP_CONFIG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsdfsdfsdfsdfdsfsdsdf
+sdfdsgfdgdfgdfg
+sdfgdfs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +818,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1489"/>
+                  <a14:cameraTool cellRange="'1'!$B$2:$B$62" spid="_x0000_s1561"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -874,7 +876,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1490"/>
+                  <a14:cameraTool cellRange="'2'!$B$2:$B$62" spid="_x0000_s1562"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -932,7 +934,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1491"/>
+                  <a14:cameraTool cellRange="'3'!$B$2:$B$62" spid="_x0000_s1563"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -990,7 +992,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1492"/>
+                  <a14:cameraTool cellRange="'4'!$B$2:$B$62" spid="_x0000_s1564"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1048,7 +1050,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1493"/>
+                  <a14:cameraTool cellRange="'5'!$B$2:$B$62" spid="_x0000_s1565"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1106,7 +1108,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1494"/>
+                  <a14:cameraTool cellRange="'6'!$B$2:$B$62" spid="_x0000_s1566"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9906,10 +9908,10 @@
   <sheetPr>
     <tabColor rgb="FF005C5C"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -9956,7 +9958,7 @@
     </row>
     <row r="2" spans="1:9" ht="72">
       <c r="A2" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>71</v>
@@ -9977,13 +9979,13 @@
         <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="36">
       <c r="A3" s="11" t="s">
         <v>70</v>
       </c>
@@ -10001,7 +10003,9 @@
         <v>2</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9">
@@ -10029,11 +10033,9 @@
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="A5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
         <v>72</v>
       </c>
@@ -10048,10 +10050,10 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10076,6 +10078,11 @@
       <c r="G6" s="11"/>
       <c r="H6" s="13"/>
       <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11524,7 +11531,7 @@
   <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11615,11 +11622,11 @@
   <sheetPr>
     <tabColor rgb="FFFF6201"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11629,71 +11636,56 @@
     <col min="3" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.1" customHeight="1">
+    <row r="1" spans="2:2" ht="50.1" customHeight="1">
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="50.1" customHeight="1">
+    <row r="2" spans="2:2" ht="50.1" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:2">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:2">
       <c r="B4" s="6"/>
-      <c r="C4" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" s="6"/>
-      <c r="C5" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" s="6"/>
-      <c r="F6" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" s="6"/>
-      <c r="D7" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:2">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:2">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:2">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:2">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:2">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:2">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2">
